--- a/Trabalho Final/Tabelas/orgao_superior.xlsx
+++ b/Trabalho Final/Tabelas/orgao_superior.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15255" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
